--- a/code/1119dhac_NPM/工作簿1.xlsx
+++ b/code/1119dhac_NPM/工作簿1.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="9405" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="9405" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="16">
   <si>
     <t xml:space="preserve">DHAC </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -74,12 +77,31 @@
     <t>NPM_timeSize</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>NPM(2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPM(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DHAC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Our_Method</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +126,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -122,20 +152,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -191,7 +231,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -293,7 +332,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -381,9 +419,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -425,7 +461,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -569,7 +604,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -609,11 +643,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="516248384"/>
-        <c:axId val="516245640"/>
+        <c:axId val="266206584"/>
+        <c:axId val="232077368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="516248384"/>
+        <c:axId val="266206584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -718,7 +752,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516245640"/>
+        <c:crossAx val="232077368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -726,7 +760,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="516245640"/>
+        <c:axId val="232077368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -847,7 +881,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516248384"/>
+        <c:crossAx val="266206584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -861,7 +895,1268 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
       <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Our_geneSize</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$19:$U$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>27.6566978193</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.878032345000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.397202797199999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.552590266900001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.219600725999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.043575419</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.4713375796</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.3685756241</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.8929824561</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.691387559800001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.7278688525</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.6238938053</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.8101265822800006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.8780487804899995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.38461538462</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DHAC_geneSize</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$20:$U$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>9.9359605911299997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3333333333299997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1707317073199999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3333333333299997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NPM_geneSize</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$21:$U$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>39.695431472099997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.7906976744</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.771186440699999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.597560975599997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.024999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.382352941200001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.035714285699999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.913043478300001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.764705882400001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0666666667</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="265801896"/>
+        <c:axId val="265801504"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="265801896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>level</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="265801504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="265801504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t>  size of gene set</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="265801896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t> time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> point</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Our_timeSize</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$24:$U$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>11.081619937699999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.7769541779</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.9601398601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.097331240199999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.0862068966</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.335195530699998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.644585987300001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.7283406755</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.508771929800002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.842105263200001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32.203278688499999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33.110619469</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33.949367088599999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36.8292682927</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39.615384615400004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>51.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DHAC_timeSize</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$25:$U$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10.773399014800001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.145833333300001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.975609756100001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.333333333300001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.666666666699999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NPM_timeSize</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$26:$U$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10.1421319797</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.6279069767</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.8983050847</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.195121951200001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.58</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.382352941200001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34.869565217400002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37.647058823499997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38.733333333300003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39.333333333299997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="498373600"/>
+        <c:axId val="498373992"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="498373600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>level</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="498373992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="498373992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>average length of time point</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="498373600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -943,7 +2238,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1182,11 +2476,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="521242688"/>
-        <c:axId val="637742568"/>
+        <c:axId val="498220592"/>
+        <c:axId val="497548856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="521242688"/>
+        <c:axId val="498220592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1228,7 +2522,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="637742568"/>
+        <c:crossAx val="497548856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1236,7 +2530,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="637742568"/>
+        <c:axId val="497548856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1287,7 +2581,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521242688"/>
+        <c:crossAx val="498220592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1301,7 +2595,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1383,7 +2676,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1510,11 +2802,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="635290696"/>
-        <c:axId val="635291480"/>
+        <c:axId val="497868328"/>
+        <c:axId val="265799152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="635290696"/>
+        <c:axId val="497868328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1557,7 +2849,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="635291480"/>
+        <c:crossAx val="265799152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1565,7 +2857,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="635291480"/>
+        <c:axId val="265799152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1616,7 +2908,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="635290696"/>
+        <c:crossAx val="497868328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1630,7 +2922,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1712,7 +3003,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1905,11 +3195,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="643787872"/>
-        <c:axId val="780183160"/>
+        <c:axId val="265799936"/>
+        <c:axId val="265800328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="643787872"/>
+        <c:axId val="265799936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1952,7 +3242,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="780183160"/>
+        <c:crossAx val="265800328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1960,7 +3250,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="780183160"/>
+        <c:axId val="265800328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2011,7 +3301,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="643787872"/>
+        <c:crossAx val="265799936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2025,7 +3315,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2137,7 +3426,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2170,8 +3458,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2188,17 +3477,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$C$7:$V$7</c:f>
@@ -2268,7 +3555,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2285,17 +3571,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$C$8:$V$8</c:f>
@@ -2320,7 +3604,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2337,17 +3620,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$C$9:$V$9</c:f>
@@ -2405,7 +3686,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2415,12 +3695,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="522635952"/>
-        <c:axId val="522634776"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="497911688"/>
+        <c:axId val="497912080"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="522635952"/>
+        <c:axId val="497911688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2453,7 +3733,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2519,7 +3798,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522634776"/>
+        <c:crossAx val="497912080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2527,7 +3806,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="522634776"/>
+        <c:axId val="497912080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2578,7 +3857,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2639,7 +3917,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522635952"/>
+        <c:crossAx val="497911688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2692,7 +3970,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2773,7 +4050,67 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>The distribution of nodes</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -2784,17 +4121,17 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$19</c:f>
+              <c:f>Sheet3!$H$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Our_geneSize</c:v>
+                  <c:v>Our_Method </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -2807,69 +4144,69 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$19:$U$19</c:f>
+              <c:f>Sheet3!$H$4:$H$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>27.6566978193</c:v>
+                  <c:v>0.1450650759219089</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.878032345000001</c:v>
+                  <c:v>0.13412870571221983</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.397202797199999</c:v>
+                  <c:v>0.12924801156905277</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.552590266900001</c:v>
+                  <c:v>0.11514822848879248</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.219600725999999</c:v>
+                  <c:v>9.9602313810556758E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.043575419</c:v>
+                  <c:v>8.0892986261749816E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.4713375796</c:v>
+                  <c:v>7.0950831525668834E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.3685756241</c:v>
+                  <c:v>6.1550976138828636E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.8929824561</c:v>
+                  <c:v>5.1518438177874187E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.691387559800001</c:v>
+                  <c:v>3.7780187997107736E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.7278688525</c:v>
+                  <c:v>2.7566883586406361E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.6238938053</c:v>
+                  <c:v>2.0426608821402747E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.2</c:v>
+                  <c:v>1.2653651482284888E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.8101265822800006</c:v>
+                  <c:v>7.1402747650036154E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.8780487804899995</c:v>
+                  <c:v>3.7057122198120027E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.38461538462</c:v>
+                  <c:v>1.1749819233550253E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.5</c:v>
+                  <c:v>9.0383224873463481E-4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8</c:v>
+                  <c:v>3.6153289949385393E-4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7</c:v>
+                  <c:v>9.0383224873463483E-5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6</c:v>
+                  <c:v>9.0383224873463483E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2881,17 +4218,17 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$20</c:f>
+              <c:f>Sheet3!$I$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DHAC_geneSize</c:v>
+                  <c:v>DHAC </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -2904,24 +4241,24 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$20:$U$20</c:f>
+              <c:f>Sheet3!$I$4:$I$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>9.9359605911299997</c:v>
+                  <c:v>0.57183098591549297</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3333333333299997</c:v>
+                  <c:v>0.27042253521126758</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1707317073199999</c:v>
+                  <c:v>0.11549295774647887</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3333333333299997</c:v>
+                  <c:v>3.3802816901408447E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>8.4507042253521118E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2933,17 +4270,17 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$21</c:f>
+              <c:f>Sheet3!$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NPM_geneSize</c:v>
+                  <c:v>NPM </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -2956,57 +4293,57 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$21:$U$21</c:f>
+              <c:f>Sheet3!$J$4:$J$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>39.695431472099997</c:v>
+                  <c:v>0.23203769140164901</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.7906976744</c:v>
+                  <c:v>0.20259128386336867</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.771186440699999</c:v>
+                  <c:v>0.13898704358068315</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.597560975599997</c:v>
+                  <c:v>9.6584216725559488E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.6</c:v>
+                  <c:v>7.0671378091872794E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.44</c:v>
+                  <c:v>5.8892815076560662E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.024999999999999</c:v>
+                  <c:v>4.7114252061248529E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.382352941200001</c:v>
+                  <c:v>4.0047114252061249E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.035714285699999</c:v>
+                  <c:v>3.2979976442873968E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.913043478300001</c:v>
+                  <c:v>2.7090694935217905E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.764705882400001</c:v>
+                  <c:v>2.0023557126030624E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0666666667</c:v>
+                  <c:v>1.7667844522968199E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.5</c:v>
+                  <c:v>7.0671378091872791E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.5</c:v>
+                  <c:v>4.7114252061248524E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11</c:v>
+                  <c:v>2.3557126030624262E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12</c:v>
+                  <c:v>1.1778563015312131E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3014,7 +4351,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3023,16 +4359,46 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="780184728"/>
-        <c:axId val="780185120"/>
+        <c:axId val="497913648"/>
+        <c:axId val="497914040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="780184728"/>
+        <c:axId val="497913648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3040,9 +4406,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:schemeClr val="dk1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
@@ -3060,7 +4426,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3074,9 +4439,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:schemeClr val="dk1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
@@ -3097,7 +4462,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="dk1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -3111,9 +4476,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -3126,7 +4491,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="780185120"/>
+        <c:crossAx val="497914040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3134,7 +4499,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="780185120"/>
+        <c:axId val="497914040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3144,9 +4509,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -3154,68 +4520,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>average</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-                  <a:t>  size of gene set</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3233,7 +4538,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -3246,51 +4551,22 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="780184728"/>
+        <c:crossAx val="497913648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
       <c:spPr>
-        <a:noFill/>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -3299,7 +4575,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3315,7 +4590,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -3335,11 +4610,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -3387,12 +4662,981 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                    <a:schemeClr val="bg1"/>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>The distribution of nodes beteen different level</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:schemeClr val="bg1"/>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Our_Method</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$B$14:$Q$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$15:$Q$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.2415563894923958</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19316610705115544</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1548489038119692</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12739482520244913</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2632826387517284E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7351372703930476E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8587793798143396E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0021726249259334E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.738099940746593E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0665613272763184E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5178747777997238E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.7402725656725264E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.962670353545329E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3825794983211535E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.925340707090658E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9751135690302193E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NPM(1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$B$14:$Q$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$16:$Q$16</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.36245110821382009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25684485006518903</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14341590612777053</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9960886571056067E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1277705345501955E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.911342894393742E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8252933507170794E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0430247718383311E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.8226857887874843E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.2151238591916557E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.2151238591916557E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NPM(2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$B$14:$Q$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$17:$Q$17</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.33545108005082591</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24523506988564167</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15628970775095299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9110546378653117E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2592121982210928E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8119440914866583E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7789072426937738E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0165184243964422E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.8945362134688691E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.8119440914866584E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5412960609911056E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DHAC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$B$14:$Q$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$18:$Q$18</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.57183098591549297</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27042253521126758</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11549295774647887</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3802816901408447E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4507042253521118E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="497584616"/>
+        <c:axId val="497585008"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="497584616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                        <a:schemeClr val="bg1"/>
+                      </a:outerShdw>
+                    </a:effectLst>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>level</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:schemeClr val="bg1"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                    <a:schemeClr val="bg1"/>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497585008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="497585008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                        <a:schemeClr val="bg1"/>
+                      </a:outerShdw>
+                    </a:effectLst>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>pecentage of nodes</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:schemeClr val="bg1"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                    <a:schemeClr val="bg1"/>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497584616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                    <a:schemeClr val="bg1"/>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:schemeClr val="bg1"/>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1">
+        <a:alpha val="98000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+        <a:schemeClr val="bg1"/>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:schemeClr val="bg1"/>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3400,14 +5644,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t> time</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>annotation gene</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t> point</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3425,12 +5665,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3452,17 +5689,17 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$24</c:f>
+              <c:f>Sheet5!$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Our_timeSize</c:v>
+                  <c:v>Our_Method</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -3471,73 +5708,131 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$D$5:$S$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$24:$U$24</c:f>
+              <c:f>Sheet5!$D$6:$S$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>11.081619937699999</c:v>
+                  <c:v>24.721177432499999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.7769541779</c:v>
+                  <c:v>21.833333333300001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.9601398601</c:v>
+                  <c:v>20.4591836735</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.097331240199999</c:v>
+                  <c:v>17.5953488372</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.0862068966</c:v>
+                  <c:v>16.899786780399999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.335195530699998</c:v>
+                  <c:v>15.653958944299999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.644585987300001</c:v>
+                  <c:v>14.195121951200001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.7283406755</c:v>
+                  <c:v>12.8486842105</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.508771929800002</c:v>
+                  <c:v>11.8636363636</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30.842105263200001</c:v>
+                  <c:v>12.4444444444</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32.203278688499999</c:v>
+                  <c:v>15.969696969699999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>33.110619469</c:v>
+                  <c:v>16.541666666699999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>33.5</c:v>
+                  <c:v>17.133333333300001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>33.949367088599999</c:v>
+                  <c:v>16.571428571399998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36.8292682927</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>39.615384615400004</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>51.6</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>50.75</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>63</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3549,17 +5844,17 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$25</c:f>
+              <c:f>Sheet5!$C$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DHAC_timeSize</c:v>
+                  <c:v>NPM(1)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -3568,28 +5863,116 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$D$5:$S$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$25:$U$25</c:f>
+              <c:f>Sheet5!$D$7:$S$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>10.773399014800001</c:v>
+                  <c:v>24.0323741007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.145833333300001</c:v>
+                  <c:v>18.538071066000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.975609756100001</c:v>
+                  <c:v>17.981818181800001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.333333333300001</c:v>
+                  <c:v>16.115942028999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.666666666699999</c:v>
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.3666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.4285714286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.6666666666700003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3601,17 +5984,17 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$26</c:f>
+              <c:f>Sheet5!$C$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NPM_timeSize</c:v>
+                  <c:v>NPM(2)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -3620,61 +6003,236 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$D$5:$S$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$26:$U$26</c:f>
+              <c:f>Sheet5!$D$8:$S$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>26.189393939399999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.181347150299999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.1707317073</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.448717948700001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.6307692308</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.9666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.142857142900001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DHAC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$D$5:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>10.1421319797</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.6279069767</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.8983050847</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.195121951200001</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.899999999999999</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.58</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.9</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.382352941200001</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34.869565217400002</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>37.647058823499997</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>38.733333333300003</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>39.333333333299997</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40.5</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43.5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42</c:v>
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$D$9:$S$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>9.9359605911299997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3333333333299997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1707317073199999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3333333333299997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3689,17 +6247,32 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="643787480"/>
-        <c:axId val="643785128"/>
+        <c:axId val="497910904"/>
+        <c:axId val="497586184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="643787480"/>
+        <c:axId val="497910904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3707,12 +6280,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3720,10 +6290,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>level</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3741,12 +6311,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3757,6 +6324,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3778,12 +6346,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3793,7 +6358,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="643785128"/>
+        <c:crossAx val="497586184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3801,26 +6366,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="643785128"/>
+        <c:axId val="497586184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3828,12 +6379,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3841,10 +6389,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>average length of time point</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>average  size of genes</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3862,12 +6410,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3878,14 +6423,20 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3896,10 +6447,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3909,7 +6457,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="643787480"/>
+        <c:crossAx val="497910904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3920,14 +6468,13 @@
         <c:showKeys val="1"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3938,10 +6485,7 @@
             <a:pPr rtl="0">
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3961,7 +6505,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -3978,10 +6522,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3998,7 +6539,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -4016,7 +6557,1087 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>annotation time</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Our_Method</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$D$12:$S$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$D$13:$S$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>12.4881439084</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.2157464213</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.767857142900001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.939534883699999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.5735607676</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.428152492700001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.5975609756</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.138157894700001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.340909090899999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.2037037037</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31.424242424199999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35.666666666700003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NPM(1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$D$12:$S$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$D$14:$S$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10.3633093525</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.177664974600001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.109090909100001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.855072463799999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.085106382999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.285714285699999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.833333333300001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NPM(2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$D$12:$S$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$D$15:$S$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.7512953368</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.8617886179</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.935897435899999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.1538461538</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.9666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.142857142899999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.666666666699999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DHAC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet5!$D$12:$S$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$D$16:$S$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10.773399014800001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.145833333300001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.975609756100001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.333333333300001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.666666666699999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="497911296"/>
+        <c:axId val="497587360"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet5!$C$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="22225" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet5!$D$12:$S$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>16</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet5!$D$17:$S$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="16"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="497911296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>level</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497587360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="497587360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>average  length of Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497911296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="zh-CN"/>
     </a:p>
@@ -4030,6 +7651,86 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4309,6 +8010,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4825,7 +8606,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5341,7 +9122,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5857,7 +9638,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6373,7 +10154,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6889,7 +10670,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7405,7 +11186,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7917,6 +11698,2099 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="235">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -8046,15 +13920,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>52386</xdr:rowOff>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>100011</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8077,6 +13951,141 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>80961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>618224</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>80511</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361948</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>18148</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>156712</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>656325</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>147187</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8406,8 +14415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:AF83"/>
   <sheetViews>
-    <sheetView topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="V9" sqref="B7:V9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N74" sqref="N74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8552,83 +14561,83 @@
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.15">
       <c r="C11" s="1">
-        <f>SUM(C7)</f>
+        <f t="shared" ref="C11:V11" si="0">SUM(C7)</f>
         <v>1605</v>
       </c>
       <c r="D11" s="1">
-        <f>SUM(D7)</f>
+        <f t="shared" si="0"/>
         <v>1484</v>
       </c>
       <c r="E11" s="1">
-        <f>SUM(E7)</f>
+        <f t="shared" si="0"/>
         <v>1430</v>
       </c>
       <c r="F11" s="1">
-        <f>SUM(F7)</f>
+        <f t="shared" si="0"/>
         <v>1274</v>
       </c>
       <c r="G11" s="1">
-        <f>SUM(G7)</f>
+        <f t="shared" si="0"/>
         <v>1102</v>
       </c>
       <c r="H11" s="1">
-        <f>SUM(H7)</f>
+        <f t="shared" si="0"/>
         <v>895</v>
       </c>
       <c r="I11" s="1">
-        <f>SUM(I7)</f>
+        <f t="shared" si="0"/>
         <v>785</v>
       </c>
       <c r="J11" s="1">
-        <f>SUM(J7)</f>
+        <f t="shared" si="0"/>
         <v>681</v>
       </c>
       <c r="K11" s="1">
-        <f>SUM(K7)</f>
+        <f t="shared" si="0"/>
         <v>570</v>
       </c>
       <c r="L11" s="1">
-        <f>SUM(L7)</f>
+        <f t="shared" si="0"/>
         <v>418</v>
       </c>
       <c r="M11" s="1">
-        <f>SUM(M7)</f>
+        <f t="shared" si="0"/>
         <v>305</v>
       </c>
       <c r="N11" s="1">
-        <f>SUM(N7)</f>
+        <f t="shared" si="0"/>
         <v>226</v>
       </c>
       <c r="O11" s="1">
-        <f>SUM(O7)</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="P11" s="1">
-        <f>SUM(P7)</f>
+        <f t="shared" si="0"/>
         <v>79</v>
       </c>
       <c r="Q11" s="1">
-        <f>SUM(Q7)</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="R11" s="1">
-        <f>SUM(R7)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="S11" s="1">
-        <f>SUM(S7)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="T11" s="1">
-        <f>SUM(T7)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="U11" s="1">
-        <f>SUM(U7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="V11" s="1">
-        <f>SUM(V7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="W11" s="1">
@@ -9728,6 +15737,1366 @@
       <c r="J83">
         <v>1</v>
       </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:J24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B4">
+        <v>1605</v>
+      </c>
+      <c r="C4">
+        <v>203</v>
+      </c>
+      <c r="D4">
+        <v>197</v>
+      </c>
+      <c r="H4" s="2">
+        <f>B4/$B$24</f>
+        <v>0.1450650759219089</v>
+      </c>
+      <c r="I4" s="2">
+        <f>C4/$C$9</f>
+        <v>0.57183098591549297</v>
+      </c>
+      <c r="J4" s="2">
+        <f>D4/$D$20</f>
+        <v>0.23203769140164901</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B5">
+        <v>1484</v>
+      </c>
+      <c r="C5">
+        <v>96</v>
+      </c>
+      <c r="D5">
+        <v>172</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" ref="H5:H23" si="0">B5/$B$24</f>
+        <v>0.13412870571221983</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" ref="I5:I8" si="1">C5/$C$9</f>
+        <v>0.27042253521126758</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" ref="J5:J19" si="2">D5/$D$20</f>
+        <v>0.20259128386336867</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B6">
+        <v>1430</v>
+      </c>
+      <c r="C6">
+        <v>41</v>
+      </c>
+      <c r="D6">
+        <v>118</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.12924801156905277</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11549295774647887</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.13898704358068315</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B7">
+        <v>1274</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>82</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.11514822848879248</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="1"/>
+        <v>3.3802816901408447E-2</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="2"/>
+        <v>9.6584216725559488E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B8">
+        <v>1102</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>60</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9602313810556758E-2</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="1"/>
+        <v>8.4507042253521118E-3</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="2"/>
+        <v>7.0671378091872794E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B9">
+        <v>895</v>
+      </c>
+      <c r="C9" s="1">
+        <f>SUM(C4:C8)</f>
+        <v>355</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="0"/>
+        <v>8.0892986261749816E-2</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="2"/>
+        <v>5.8892815076560662E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B10">
+        <v>785</v>
+      </c>
+      <c r="D10">
+        <v>40</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="0"/>
+        <v>7.0950831525668834E-2</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="2"/>
+        <v>4.7114252061248529E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B11">
+        <v>681</v>
+      </c>
+      <c r="D11">
+        <v>34</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="0"/>
+        <v>6.1550976138828636E-2</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="2"/>
+        <v>4.0047114252061249E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B12">
+        <v>570</v>
+      </c>
+      <c r="D12">
+        <v>28</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="0"/>
+        <v>5.1518438177874187E-2</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="2"/>
+        <v>3.2979976442873968E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B13">
+        <v>418</v>
+      </c>
+      <c r="D13">
+        <v>23</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7780187997107736E-2</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="2"/>
+        <v>2.7090694935217905E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B14">
+        <v>305</v>
+      </c>
+      <c r="D14">
+        <v>17</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="0"/>
+        <v>2.7566883586406361E-2</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="2"/>
+        <v>2.0023557126030624E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B15">
+        <v>226</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0426608821402747E-2</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="2"/>
+        <v>1.7667844522968199E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B16">
+        <v>140</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2653651482284888E-2</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="2"/>
+        <v>7.0671378091872791E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B17">
+        <v>79</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="0"/>
+        <v>7.1402747650036154E-3</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="2"/>
+        <v>4.7114252061248524E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B18">
+        <v>41</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7057122198120027E-3</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="2"/>
+        <v>2.3557126030624262E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B19">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1749819233550253E-3</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="2"/>
+        <v>1.1778563015312131E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1">
+        <f>SUM(D4:D19)</f>
+        <v>849</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="0"/>
+        <v>9.0383224873463481E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="0"/>
+        <v>3.6153289949385393E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="0"/>
+        <v>9.0383224873463483E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="0"/>
+        <v>9.0383224873463483E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B24" s="1">
+        <f>SUM(B4:B23)</f>
+        <v>11064</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:Q18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>20171215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="H4" t="e">
+        <f>Sheet4!B16=B4/$B$24</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>9</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <v>11</v>
+      </c>
+      <c r="M9">
+        <v>12</v>
+      </c>
+      <c r="N9">
+        <v>13</v>
+      </c>
+      <c r="O9">
+        <v>14</v>
+      </c>
+      <c r="P9">
+        <v>15</v>
+      </c>
+      <c r="Q9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>1223</v>
+      </c>
+      <c r="C10">
+        <v>978</v>
+      </c>
+      <c r="D10">
+        <v>784</v>
+      </c>
+      <c r="E10">
+        <v>645</v>
+      </c>
+      <c r="F10">
+        <v>469</v>
+      </c>
+      <c r="G10">
+        <v>341</v>
+      </c>
+      <c r="H10">
+        <v>246</v>
+      </c>
+      <c r="I10">
+        <v>152</v>
+      </c>
+      <c r="J10">
+        <v>88</v>
+      </c>
+      <c r="K10">
+        <v>54</v>
+      </c>
+      <c r="L10">
+        <v>33</v>
+      </c>
+      <c r="M10">
+        <v>24</v>
+      </c>
+      <c r="N10">
+        <v>15</v>
+      </c>
+      <c r="O10">
+        <v>7</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <f>SUM(B10:Q10)</f>
+        <v>5063</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>278</v>
+      </c>
+      <c r="C11">
+        <v>197</v>
+      </c>
+      <c r="D11">
+        <v>110</v>
+      </c>
+      <c r="E11">
+        <v>69</v>
+      </c>
+      <c r="F11">
+        <v>47</v>
+      </c>
+      <c r="G11">
+        <v>30</v>
+      </c>
+      <c r="H11">
+        <v>14</v>
+      </c>
+      <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="R11">
+        <f>SUM(B11:Q11)</f>
+        <v>767</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>264</v>
+      </c>
+      <c r="C12">
+        <v>193</v>
+      </c>
+      <c r="D12">
+        <v>123</v>
+      </c>
+      <c r="E12">
+        <v>78</v>
+      </c>
+      <c r="F12">
+        <v>65</v>
+      </c>
+      <c r="G12">
+        <v>30</v>
+      </c>
+      <c r="H12">
+        <v>14</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="J12">
+        <v>7</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <f>SUM(B12:L12)</f>
+        <v>787</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>203</v>
+      </c>
+      <c r="C13">
+        <v>96</v>
+      </c>
+      <c r="D13">
+        <v>41</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="R13">
+        <f>SUM(B13:F13)</f>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+      <c r="H14">
+        <v>7</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
+      </c>
+      <c r="J14">
+        <v>9</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <v>11</v>
+      </c>
+      <c r="M14">
+        <v>12</v>
+      </c>
+      <c r="N14">
+        <v>13</v>
+      </c>
+      <c r="O14">
+        <v>14</v>
+      </c>
+      <c r="P14">
+        <v>15</v>
+      </c>
+      <c r="Q14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2">
+        <f>B10/$R$10</f>
+        <v>0.2415563894923958</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" ref="C15:Q15" si="0">C10/$R$10</f>
+        <v>0.19316610705115544</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1548489038119692</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.12739482520244913</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>9.2632826387517284E-2</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="0"/>
+        <v>6.7351372703930476E-2</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="0"/>
+        <v>4.8587793798143396E-2</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="0"/>
+        <v>3.0021726249259334E-2</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="0"/>
+        <v>1.738099940746593E-2</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0665613272763184E-2</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="0"/>
+        <v>6.5178747777997238E-3</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="0"/>
+        <v>4.7402725656725264E-3</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="0"/>
+        <v>2.962670353545329E-3</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3825794983211535E-3</v>
+      </c>
+      <c r="P15" s="2">
+        <f t="shared" si="0"/>
+        <v>5.925340707090658E-4</v>
+      </c>
+      <c r="Q15" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9751135690302193E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2">
+        <f>B11/$R$11</f>
+        <v>0.36245110821382009</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" ref="C16:L16" si="1">C11/$R$11</f>
+        <v>0.25684485006518903</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.14341590612777053</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="1"/>
+        <v>8.9960886571056067E-2</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="1"/>
+        <v>6.1277705345501955E-2</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="1"/>
+        <v>3.911342894393742E-2</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="1"/>
+        <v>1.8252933507170794E-2</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0430247718383311E-2</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="1"/>
+        <v>7.8226857887874843E-3</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="1"/>
+        <v>5.2151238591916557E-3</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="1"/>
+        <v>5.2151238591916557E-3</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2">
+        <f>B12/$R$12</f>
+        <v>0.33545108005082591</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" ref="C17:L17" si="2">C12/$R$12</f>
+        <v>0.24523506988564167</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="2"/>
+        <v>0.15628970775095299</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="2"/>
+        <v>9.9110546378653117E-2</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="2"/>
+        <v>8.2592121982210928E-2</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="2"/>
+        <v>3.8119440914866583E-2</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="2"/>
+        <v>1.7789072426937738E-2</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0165184243964422E-2</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="2"/>
+        <v>8.8945362134688691E-3</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="2"/>
+        <v>3.8119440914866584E-3</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="2"/>
+        <v>2.5412960609911056E-3</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2">
+        <f>B13/$R$13</f>
+        <v>0.57183098591549297</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" ref="C18:F18" si="3">C13/$R$13</f>
+        <v>0.27042253521126758</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="3"/>
+        <v>0.11549295774647887</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="3"/>
+        <v>3.3802816901408447E-2</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="3"/>
+        <v>8.4507042253521118E-3</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+    </row>
+  </sheetData>
+  <dataConsolidate topLabels="1">
+    <dataRefs count="1">
+      <dataRef ref="B10:Q10" sheet="Sheet4"/>
+    </dataRefs>
+  </dataConsolidate>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>20171215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <v>8</v>
+      </c>
+      <c r="L5">
+        <v>9</v>
+      </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5">
+        <v>11</v>
+      </c>
+      <c r="O5">
+        <v>12</v>
+      </c>
+      <c r="P5">
+        <v>13</v>
+      </c>
+      <c r="Q5">
+        <v>14</v>
+      </c>
+      <c r="R5">
+        <v>15</v>
+      </c>
+      <c r="S5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3">
+        <v>24.721177432499999</v>
+      </c>
+      <c r="E6" s="3">
+        <v>21.833333333300001</v>
+      </c>
+      <c r="F6" s="3">
+        <v>20.4591836735</v>
+      </c>
+      <c r="G6" s="3">
+        <v>17.5953488372</v>
+      </c>
+      <c r="H6" s="3">
+        <v>16.899786780399999</v>
+      </c>
+      <c r="I6" s="3">
+        <v>15.653958944299999</v>
+      </c>
+      <c r="J6" s="3">
+        <v>14.195121951200001</v>
+      </c>
+      <c r="K6" s="3">
+        <v>12.8486842105</v>
+      </c>
+      <c r="L6" s="3">
+        <v>11.8636363636</v>
+      </c>
+      <c r="M6" s="3">
+        <v>12.4444444444</v>
+      </c>
+      <c r="N6" s="3">
+        <v>15.969696969699999</v>
+      </c>
+      <c r="O6" s="3">
+        <v>16.541666666699999</v>
+      </c>
+      <c r="P6" s="3">
+        <v>17.133333333300001</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>16.571428571399998</v>
+      </c>
+      <c r="R6" s="3">
+        <v>17</v>
+      </c>
+      <c r="S6" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3">
+        <v>24.0323741007</v>
+      </c>
+      <c r="E7" s="3">
+        <v>18.538071066000001</v>
+      </c>
+      <c r="F7" s="3">
+        <v>17.981818181800001</v>
+      </c>
+      <c r="G7" s="3">
+        <v>16.115942028999999</v>
+      </c>
+      <c r="H7" s="3">
+        <v>14</v>
+      </c>
+      <c r="I7" s="3">
+        <v>12.3666666667</v>
+      </c>
+      <c r="J7" s="3">
+        <v>12.4285714286</v>
+      </c>
+      <c r="K7" s="3">
+        <v>12.25</v>
+      </c>
+      <c r="L7" s="3">
+        <v>9.6666666666700003</v>
+      </c>
+      <c r="M7" s="3">
+        <v>7.75</v>
+      </c>
+      <c r="N7" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3">
+        <v>26.189393939399999</v>
+      </c>
+      <c r="E8" s="3">
+        <v>21.181347150299999</v>
+      </c>
+      <c r="F8" s="3">
+        <v>19.1707317073</v>
+      </c>
+      <c r="G8" s="3">
+        <v>17.448717948700001</v>
+      </c>
+      <c r="H8" s="3">
+        <v>13.6307692308</v>
+      </c>
+      <c r="I8" s="3">
+        <v>11.9666666667</v>
+      </c>
+      <c r="J8" s="3">
+        <v>12.142857142900001</v>
+      </c>
+      <c r="K8" s="3">
+        <v>11</v>
+      </c>
+      <c r="L8" s="3">
+        <v>9</v>
+      </c>
+      <c r="M8" s="3">
+        <v>9</v>
+      </c>
+      <c r="N8" s="3">
+        <v>6</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="3">
+        <v>9.9359605911299997</v>
+      </c>
+      <c r="E9" s="3">
+        <v>8.3333333333299997</v>
+      </c>
+      <c r="F9" s="3">
+        <v>7.1707317073199999</v>
+      </c>
+      <c r="G9" s="3">
+        <v>6.3333333333299997</v>
+      </c>
+      <c r="H9" s="3">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12">
+        <v>7</v>
+      </c>
+      <c r="K12">
+        <v>8</v>
+      </c>
+      <c r="L12">
+        <v>9</v>
+      </c>
+      <c r="M12">
+        <v>10</v>
+      </c>
+      <c r="N12">
+        <v>11</v>
+      </c>
+      <c r="O12">
+        <v>12</v>
+      </c>
+      <c r="P12">
+        <v>13</v>
+      </c>
+      <c r="Q12">
+        <v>14</v>
+      </c>
+      <c r="R12">
+        <v>15</v>
+      </c>
+      <c r="S12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="3">
+        <v>12.4881439084</v>
+      </c>
+      <c r="E13" s="3">
+        <v>14.2157464213</v>
+      </c>
+      <c r="F13" s="3">
+        <v>15.767857142900001</v>
+      </c>
+      <c r="G13" s="3">
+        <v>17.939534883699999</v>
+      </c>
+      <c r="H13" s="3">
+        <v>20.5735607676</v>
+      </c>
+      <c r="I13" s="3">
+        <v>23.428152492700001</v>
+      </c>
+      <c r="J13" s="3">
+        <v>24.5975609756</v>
+      </c>
+      <c r="K13" s="3">
+        <v>26.138157894700001</v>
+      </c>
+      <c r="L13" s="3">
+        <v>28.340909090899999</v>
+      </c>
+      <c r="M13" s="3">
+        <v>29.2037037037</v>
+      </c>
+      <c r="N13" s="3">
+        <v>31.424242424199999</v>
+      </c>
+      <c r="O13" s="3">
+        <v>32.75</v>
+      </c>
+      <c r="P13" s="3">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>35</v>
+      </c>
+      <c r="R13" s="3">
+        <v>35.666666666700003</v>
+      </c>
+      <c r="S13" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3">
+        <v>10.3633093525</v>
+      </c>
+      <c r="E14" s="3">
+        <v>12.177664974600001</v>
+      </c>
+      <c r="F14" s="3">
+        <v>14.109090909100001</v>
+      </c>
+      <c r="G14" s="3">
+        <v>15.855072463799999</v>
+      </c>
+      <c r="H14" s="3">
+        <v>17.085106382999999</v>
+      </c>
+      <c r="I14" s="3">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J14" s="3">
+        <v>23.285714285699999</v>
+      </c>
+      <c r="K14" s="3">
+        <v>22.25</v>
+      </c>
+      <c r="L14" s="3">
+        <v>26.833333333300001</v>
+      </c>
+      <c r="M14" s="3">
+        <v>29.25</v>
+      </c>
+      <c r="N14" s="3">
+        <v>32.75</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3">
+        <v>10.25</v>
+      </c>
+      <c r="E15" s="3">
+        <v>11.7512953368</v>
+      </c>
+      <c r="F15" s="3">
+        <v>13.8617886179</v>
+      </c>
+      <c r="G15" s="3">
+        <v>15.935897435899999</v>
+      </c>
+      <c r="H15" s="3">
+        <v>18.1538461538</v>
+      </c>
+      <c r="I15" s="3">
+        <v>19.9666666667</v>
+      </c>
+      <c r="J15" s="3">
+        <v>21.5</v>
+      </c>
+      <c r="K15" s="3">
+        <v>23.375</v>
+      </c>
+      <c r="L15" s="3">
+        <v>24.142857142899999</v>
+      </c>
+      <c r="M15" s="3">
+        <v>25.666666666699999</v>
+      </c>
+      <c r="N15" s="3">
+        <v>24</v>
+      </c>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="3">
+        <v>10.773399014800001</v>
+      </c>
+      <c r="E16" s="3">
+        <v>12.145833333300001</v>
+      </c>
+      <c r="F16" s="3">
+        <v>12.975609756100001</v>
+      </c>
+      <c r="G16" s="3">
+        <v>14.333333333300001</v>
+      </c>
+      <c r="H16" s="3">
+        <v>15.666666666699999</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -9736,11 +17105,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:AW26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:U13"/>
     </sheetView>
   </sheetViews>

--- a/code/1119dhac_NPM/工作簿1.xlsx
+++ b/code/1119dhac_NPM/工作簿1.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="9405" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="9405" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="24">
   <si>
     <t xml:space="preserve">DHAC </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -91,6 +92,37 @@
   </si>
   <si>
     <t>Our_Method</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计enrichment结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DHAC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Our</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>求和</t>
+  </si>
+  <si>
+    <t>平均值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -643,11 +675,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="266206584"/>
-        <c:axId val="232077368"/>
+        <c:axId val="265793784"/>
+        <c:axId val="265802096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="266206584"/>
+        <c:axId val="265793784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -752,7 +784,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="232077368"/>
+        <c:crossAx val="265802096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -760,7 +792,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="232077368"/>
+        <c:axId val="265802096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -881,7 +913,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="266206584"/>
+        <c:crossAx val="265793784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -975,6 +1007,1332 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>平均富集到的</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>GO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> term</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t>数量</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet6!$E$4:$T$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$E$5:$T$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>4.3761242845500004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3865030674799996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2028061224500002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5488372093000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4456289978700001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9853372434000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.1707317073199999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5921052631599997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.6022727272699999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.09259259259</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1212121212100001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5833333333300001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1428571428600001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DHAC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet6!$E$4:$T$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$E$6:$T$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>7.0640394088700003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8292682926800001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3333333333300001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$D$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NPM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet6!$E$4:$T$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$E$7:$T$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>3.8992805755400002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.56345177665</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7909090909099996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6956521739100001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4255319148899996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.7857142857100001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="491602384"/>
+        <c:axId val="491602776"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="491602384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="491602776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="491602776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="491602384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>能富集到</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>GO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> term </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t>的百分比</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$D$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Our</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet6!$E$34:$T$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$E$35:$T$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.64677023712199999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64417177914099999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59693877550999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59379844961200001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61833688699400002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.62170087976499999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65853658536600002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65789473684199995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.56818181818199998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.59259259259300001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.60606060606099998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.70833333333299997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$D$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DHAC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet6!$E$34:$T$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$E$36:$T$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.66009852216700005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67708333333299997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80487804878000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83333333333299997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$D$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NPM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet6!$E$34:$T$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$E$37:$T$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.60071942446000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63451776649699998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.718181818182</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.710144927536</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61702127659600003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66666666666700003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78571428571400004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83333333333299997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="493839872"/>
+        <c:axId val="493840264"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="493839872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="493840264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="493840264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="493839872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
@@ -1224,11 +2582,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="265801896"/>
-        <c:axId val="265801504"/>
+        <c:axId val="488557488"/>
+        <c:axId val="488557880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="265801896"/>
+        <c:axId val="488557488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1326,7 +2684,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="265801504"/>
+        <c:crossAx val="488557880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1334,7 +2692,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="265801504"/>
+        <c:axId val="488557880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1445,7 +2803,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="265801896"/>
+        <c:crossAx val="488557488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1564,7 +2922,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -1887,11 +3245,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="498373600"/>
-        <c:axId val="498373992"/>
+        <c:axId val="488559056"/>
+        <c:axId val="488559448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="498373600"/>
+        <c:axId val="488559056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1989,7 +3347,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="498373992"/>
+        <c:crossAx val="488559448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1997,7 +3355,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="498373992"/>
+        <c:axId val="488559448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2104,7 +3462,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="498373600"/>
+        <c:crossAx val="488559056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2476,11 +3834,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="498220592"/>
-        <c:axId val="497548856"/>
+        <c:axId val="265852976"/>
+        <c:axId val="265383888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="498220592"/>
+        <c:axId val="265852976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2522,7 +3880,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497548856"/>
+        <c:crossAx val="265383888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2530,7 +3888,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="497548856"/>
+        <c:axId val="265383888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2581,7 +3939,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="498220592"/>
+        <c:crossAx val="265852976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2802,11 +4160,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="497868328"/>
-        <c:axId val="265799152"/>
+        <c:axId val="265901168"/>
+        <c:axId val="489021296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="497868328"/>
+        <c:axId val="265901168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2849,7 +4207,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="265799152"/>
+        <c:crossAx val="489021296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2857,7 +4215,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="265799152"/>
+        <c:axId val="489021296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2908,7 +4266,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497868328"/>
+        <c:crossAx val="265901168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3195,11 +4553,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="265799936"/>
-        <c:axId val="265800328"/>
+        <c:axId val="489022080"/>
+        <c:axId val="489022472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="265799936"/>
+        <c:axId val="489022080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3242,7 +4600,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="265800328"/>
+        <c:crossAx val="489022472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3250,7 +4608,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="265800328"/>
+        <c:axId val="489022472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3301,7 +4659,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="265799936"/>
+        <c:crossAx val="489022080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3696,11 +5054,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="497911688"/>
-        <c:axId val="497912080"/>
+        <c:axId val="489023256"/>
+        <c:axId val="489023648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="497911688"/>
+        <c:axId val="489023256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3798,7 +5156,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497912080"/>
+        <c:crossAx val="489023648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3806,7 +5164,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="497912080"/>
+        <c:axId val="489023648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3917,7 +5275,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497911688"/>
+        <c:crossAx val="489023256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4359,11 +5717,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="497913648"/>
-        <c:axId val="497914040"/>
+        <c:axId val="489024824"/>
+        <c:axId val="265459016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="497913648"/>
+        <c:axId val="489024824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4491,7 +5849,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497914040"/>
+        <c:crossAx val="265459016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4499,7 +5857,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="497914040"/>
+        <c:axId val="265459016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4551,7 +5909,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497913648"/>
+        <c:crossAx val="489024824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5235,11 +6593,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="497584616"/>
-        <c:axId val="497585008"/>
+        <c:axId val="265459800"/>
+        <c:axId val="265460192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="497584616"/>
+        <c:axId val="265459800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5344,7 +6702,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497585008"/>
+        <c:crossAx val="265460192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5352,7 +6710,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="497585008"/>
+        <c:axId val="265460192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5479,7 +6837,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497584616"/>
+        <c:crossAx val="265459800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6249,11 +7607,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="497910904"/>
-        <c:axId val="497586184"/>
+        <c:axId val="265461368"/>
+        <c:axId val="265461760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="497910904"/>
+        <c:axId val="265461368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6358,7 +7716,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497586184"/>
+        <c:crossAx val="265461760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6366,7 +7724,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="497586184"/>
+        <c:axId val="265461760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6457,7 +7815,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497910904"/>
+        <c:crossAx val="265461368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7210,8 +8568,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="497911296"/>
-        <c:axId val="497587360"/>
+        <c:axId val="488555920"/>
+        <c:axId val="488556312"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -7329,7 +8687,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="497911296"/>
+        <c:axId val="488555920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7434,7 +8792,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497587360"/>
+        <c:crossAx val="488556312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7442,7 +8800,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="497587360"/>
+        <c:axId val="488556312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7533,7 +8891,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497911296"/>
+        <c:crossAx val="488555920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7731,6 +9089,86 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9638,6 +11076,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -14089,6 +16559,71 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
@@ -16644,7 +19179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+    <sheetView topLeftCell="C13" workbookViewId="0">
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
@@ -17107,6 +19642,1055 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>20171219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>7</v>
+      </c>
+      <c r="L4">
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <v>9</v>
+      </c>
+      <c r="N4">
+        <v>10</v>
+      </c>
+      <c r="O4">
+        <v>11</v>
+      </c>
+      <c r="P4">
+        <v>12</v>
+      </c>
+      <c r="Q4">
+        <v>13</v>
+      </c>
+      <c r="R4">
+        <v>14</v>
+      </c>
+      <c r="S4">
+        <v>15</v>
+      </c>
+      <c r="T4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>4.3761242845500004</v>
+      </c>
+      <c r="F5">
+        <v>4.3865030674799996</v>
+      </c>
+      <c r="G5">
+        <v>4.2028061224500002</v>
+      </c>
+      <c r="H5">
+        <v>4.5488372093000002</v>
+      </c>
+      <c r="I5">
+        <v>5.4456289978700001</v>
+      </c>
+      <c r="J5">
+        <v>5.9853372434000001</v>
+      </c>
+      <c r="K5">
+        <v>7.1707317073199999</v>
+      </c>
+      <c r="L5">
+        <v>6.5921052631599997</v>
+      </c>
+      <c r="M5">
+        <v>8.6022727272699999</v>
+      </c>
+      <c r="N5">
+        <v>7.09259259259</v>
+      </c>
+      <c r="O5">
+        <v>2.1212121212100001</v>
+      </c>
+      <c r="P5">
+        <v>2.5833333333300001</v>
+      </c>
+      <c r="Q5">
+        <v>0.8</v>
+      </c>
+      <c r="R5">
+        <v>1.1428571428600001</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>7.0640394088700003</v>
+      </c>
+      <c r="F6">
+        <v>8.875</v>
+      </c>
+      <c r="G6">
+        <v>8.8292682926800001</v>
+      </c>
+      <c r="H6">
+        <v>11.75</v>
+      </c>
+      <c r="I6">
+        <v>2.3333333333300001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>3.8992805755400002</v>
+      </c>
+      <c r="F7">
+        <v>4.56345177665</v>
+      </c>
+      <c r="G7">
+        <v>4.7909090909099996</v>
+      </c>
+      <c r="H7">
+        <v>4.6956521739100001</v>
+      </c>
+      <c r="I7">
+        <v>5.4255319148899996</v>
+      </c>
+      <c r="J7">
+        <v>5.5</v>
+      </c>
+      <c r="K7">
+        <v>5.7857142857100001</v>
+      </c>
+      <c r="L7">
+        <v>6.125</v>
+      </c>
+      <c r="M7">
+        <v>7.5</v>
+      </c>
+      <c r="N7">
+        <v>11.25</v>
+      </c>
+      <c r="O7">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>4.3761242845500004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>4.3865030674799996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>4.2028061224500002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>4.5488372093000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>5.4456289978700001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>5.9853372434000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>7.1707317073199999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>6.5921052631599997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>8.6022727272699999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>7.09259259259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>2.1212121212100001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>2.5833333333300001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <v>1.1428571428600001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>7.0640394088700003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>8.875</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>8.8292682926800001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>2.3333333333300001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>3.8992805755400002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>4.56345177665</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
+      </c>
+      <c r="J34">
+        <v>6</v>
+      </c>
+      <c r="K34">
+        <v>7</v>
+      </c>
+      <c r="L34">
+        <v>8</v>
+      </c>
+      <c r="M34">
+        <v>9</v>
+      </c>
+      <c r="N34">
+        <v>10</v>
+      </c>
+      <c r="O34">
+        <v>11</v>
+      </c>
+      <c r="P34">
+        <v>12</v>
+      </c>
+      <c r="Q34">
+        <v>13</v>
+      </c>
+      <c r="R34">
+        <v>14</v>
+      </c>
+      <c r="S34">
+        <v>15</v>
+      </c>
+      <c r="T34">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>4.7909090909099996</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35">
+        <v>0.64677023712199999</v>
+      </c>
+      <c r="F35">
+        <v>0.64417177914099999</v>
+      </c>
+      <c r="G35">
+        <v>0.59693877550999996</v>
+      </c>
+      <c r="H35">
+        <v>0.59379844961200001</v>
+      </c>
+      <c r="I35">
+        <v>0.61833688699400002</v>
+      </c>
+      <c r="J35">
+        <v>0.62170087976499999</v>
+      </c>
+      <c r="K35">
+        <v>0.65853658536600002</v>
+      </c>
+      <c r="L35">
+        <v>0.65789473684199995</v>
+      </c>
+      <c r="M35">
+        <v>0.56818181818199998</v>
+      </c>
+      <c r="N35">
+        <v>0.59259259259300001</v>
+      </c>
+      <c r="O35">
+        <v>0.60606060606099998</v>
+      </c>
+      <c r="P35">
+        <v>0.70833333333299997</v>
+      </c>
+      <c r="Q35">
+        <v>0.8</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>4.6956521739100001</v>
+      </c>
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36">
+        <v>0.66009852216700005</v>
+      </c>
+      <c r="F36">
+        <v>0.67708333333299997</v>
+      </c>
+      <c r="G36">
+        <v>0.80487804878000002</v>
+      </c>
+      <c r="H36">
+        <v>0.83333333333299997</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>5.4255319148899996</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37">
+        <v>0.60071942446000004</v>
+      </c>
+      <c r="F37">
+        <v>0.63451776649699998</v>
+      </c>
+      <c r="G37">
+        <v>0.718181818182</v>
+      </c>
+      <c r="H37">
+        <v>0.710144927536</v>
+      </c>
+      <c r="I37">
+        <v>0.61702127659600003</v>
+      </c>
+      <c r="J37">
+        <v>0.66666666666700003</v>
+      </c>
+      <c r="K37">
+        <v>0.78571428571400004</v>
+      </c>
+      <c r="L37">
+        <v>0.875</v>
+      </c>
+      <c r="M37">
+        <v>0.83333333333299997</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <v>5.7857142857100001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>8</v>
+      </c>
+      <c r="B40">
+        <v>6.125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>10</v>
+      </c>
+      <c r="B42">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>11</v>
+      </c>
+      <c r="B43">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>167</v>
+      </c>
+      <c r="C50">
+        <v>278</v>
+      </c>
+      <c r="D50">
+        <v>0.60071942446000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>125</v>
+      </c>
+      <c r="C51">
+        <v>197</v>
+      </c>
+      <c r="D51">
+        <v>0.63451776649699998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52">
+        <v>79</v>
+      </c>
+      <c r="C52">
+        <v>110</v>
+      </c>
+      <c r="D52">
+        <v>0.718181818182</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>4</v>
+      </c>
+      <c r="B53">
+        <v>49</v>
+      </c>
+      <c r="C53">
+        <v>69</v>
+      </c>
+      <c r="D53">
+        <v>0.710144927536</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>5</v>
+      </c>
+      <c r="B54">
+        <v>29</v>
+      </c>
+      <c r="C54">
+        <v>47</v>
+      </c>
+      <c r="D54">
+        <v>0.61702127659600003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>6</v>
+      </c>
+      <c r="B55">
+        <v>20</v>
+      </c>
+      <c r="C55">
+        <v>30</v>
+      </c>
+      <c r="D55">
+        <v>0.66666666666700003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>7</v>
+      </c>
+      <c r="B56">
+        <v>11</v>
+      </c>
+      <c r="C56">
+        <v>14</v>
+      </c>
+      <c r="D56">
+        <v>0.78571428571400004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>8</v>
+      </c>
+      <c r="B57">
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <v>8</v>
+      </c>
+      <c r="D57">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>9</v>
+      </c>
+      <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>6</v>
+      </c>
+      <c r="D58">
+        <v>0.83333333333299997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>10</v>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>11</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>134</v>
+      </c>
+      <c r="C63">
+        <v>203</v>
+      </c>
+      <c r="D63">
+        <v>0.66009852216700005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64">
+        <v>65</v>
+      </c>
+      <c r="C64">
+        <v>96</v>
+      </c>
+      <c r="D64">
+        <v>0.67708333333299997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>3</v>
+      </c>
+      <c r="B65">
+        <v>33</v>
+      </c>
+      <c r="C65">
+        <v>41</v>
+      </c>
+      <c r="D65">
+        <v>0.80487804878000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>4</v>
+      </c>
+      <c r="B66">
+        <v>10</v>
+      </c>
+      <c r="C66">
+        <v>12</v>
+      </c>
+      <c r="D66">
+        <v>0.83333333333299997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>5</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <v>791</v>
+      </c>
+      <c r="C69">
+        <v>1223</v>
+      </c>
+      <c r="D69">
+        <v>0.64677023712199999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70">
+        <v>630</v>
+      </c>
+      <c r="C70">
+        <v>978</v>
+      </c>
+      <c r="D70">
+        <v>0.64417177914099999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>3</v>
+      </c>
+      <c r="B71">
+        <v>468</v>
+      </c>
+      <c r="C71">
+        <v>784</v>
+      </c>
+      <c r="D71">
+        <v>0.59693877550999996</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>4</v>
+      </c>
+      <c r="B72">
+        <v>383</v>
+      </c>
+      <c r="C72">
+        <v>645</v>
+      </c>
+      <c r="D72">
+        <v>0.59379844961200001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>5</v>
+      </c>
+      <c r="B73">
+        <v>290</v>
+      </c>
+      <c r="C73">
+        <v>469</v>
+      </c>
+      <c r="D73">
+        <v>0.61833688699400002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>6</v>
+      </c>
+      <c r="B74">
+        <v>212</v>
+      </c>
+      <c r="C74">
+        <v>341</v>
+      </c>
+      <c r="D74">
+        <v>0.62170087976499999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>7</v>
+      </c>
+      <c r="B75">
+        <v>162</v>
+      </c>
+      <c r="C75">
+        <v>246</v>
+      </c>
+      <c r="D75">
+        <v>0.65853658536600002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>8</v>
+      </c>
+      <c r="B76">
+        <v>100</v>
+      </c>
+      <c r="C76">
+        <v>152</v>
+      </c>
+      <c r="D76">
+        <v>0.65789473684199995</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>9</v>
+      </c>
+      <c r="B77">
+        <v>50</v>
+      </c>
+      <c r="C77">
+        <v>88</v>
+      </c>
+      <c r="D77">
+        <v>0.56818181818199998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>10</v>
+      </c>
+      <c r="B78">
+        <v>32</v>
+      </c>
+      <c r="C78">
+        <v>54</v>
+      </c>
+      <c r="D78">
+        <v>0.59259259259300001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>11</v>
+      </c>
+      <c r="B79">
+        <v>20</v>
+      </c>
+      <c r="C79">
+        <v>33</v>
+      </c>
+      <c r="D79">
+        <v>0.60606060606099998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>12</v>
+      </c>
+      <c r="B80">
+        <v>17</v>
+      </c>
+      <c r="C80">
+        <v>24</v>
+      </c>
+      <c r="D80">
+        <v>0.70833333333299997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>13</v>
+      </c>
+      <c r="B81">
+        <v>12</v>
+      </c>
+      <c r="C81">
+        <v>15</v>
+      </c>
+      <c r="D81">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>14</v>
+      </c>
+      <c r="B82">
+        <v>7</v>
+      </c>
+      <c r="C82">
+        <v>7</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>15</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>16</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:AW26"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
